--- a/results/escherichia_coli/Crp_ARs_Study/BAR_condition-specific_enrichment_analysis.xlsx
+++ b/results/escherichia_coli/Crp_ARs_Study/BAR_condition-specific_enrichment_analysis.xlsx
@@ -7,14 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_fru_e10.0_Presence" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_fru_e10.0-deletion_crp_Presence" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glyc_e5.0_Presence" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glyc_e5.0-deletion_Ar1_Presence" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glyc_e5.0-deletion_Ar1_Ar2_Presence" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glyc_e5.0-deletion_Ar2_Presence" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glyc_e5.0-deletion_crp_Presence" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glc__D_e10.0-deletion_crp_Presence" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_fru_e10.0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_fru_e10.0-deletion_crp" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glyc_e5.0" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glyc_e5.0-deletion_Ar1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glyc_e5.0-deletion_Ar1_Ar2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glyc_e5.0-deletion_Ar2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glyc_e5.0-deletion_crp" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glc__D_e10.0-deletion_crp" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +464,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -472,322 +472,322 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.918670245897589e-82</v>
+        <v>7.801792016017928e-39</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7486033519553073</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7486033519553073</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9.949944012255747e-20</v>
+        <v>6.469928826689541e-17</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5151515151515151</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Purine and Pyrimidine Biosynthesis</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.45794778088852e-17</v>
+        <v>1.470893352510763e-11</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.88</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9166666666666666</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.840820827146782e-17</v>
+        <v>4.676258894173373e-09</v>
       </c>
       <c r="D5" t="n">
-        <v>0.625</v>
+        <v>0.9375</v>
       </c>
       <c r="E5" t="n">
-        <v>0.625</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Purine and Pyrimidine Biosynthesis</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6.946477418140474e-16</v>
+        <v>4.58183940003302e-08</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9090909090909091</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>Histidine Metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.968070024229534e-15</v>
+        <v>5.356594602775547e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6037735849056604</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6037735849056604</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9.36610494166091e-14</v>
+        <v>4.321748196335389e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9.180616066214856e-12</v>
+        <v>5.078520720855548e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.4507042253521127</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9333333333333333</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Murein Biosynthesis</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.906008803942105e-10</v>
+        <v>6.538939801116467e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6060606060606061</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Murein Biosynthesis</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.142395148037737e-09</v>
+        <v>0.001701847780186567</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.218034637948315e-08</v>
+        <v>0.002357590613161454</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7</v>
+        <v>0.45</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Histidine Metabolism</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.587715063854422e-08</v>
+        <v>0.002780214197031642</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.3289429894749e-07</v>
+        <v>0.003131131045591798</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7333333333333333</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.620171062900886e-07</v>
+        <v>0.003907699487445725</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5833333333333334</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Arginine and Proline Metabolism</t>
+          <t>Citric Acid Cycle</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.748422061070986e-07</v>
+        <v>0.007244692242139019</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4634146341463415</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4634146341463415</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Alanine and Aspartate Metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>7.204185224773262e-07</v>
+        <v>0.007516122555575357</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5600000000000001</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>8.680286517565434e-07</v>
+        <v>0.01043936085801829</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -795,170 +795,170 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4.460023991950164e-06</v>
+        <v>0.01505570148926211</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4358974358974359</v>
+        <v>0.6</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4358974358974359</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nucleotide Salvage Pathway</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.636096191597066e-05</v>
+        <v>0.031136749721326</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3246753246753247</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3246753246753247</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3.489894685436429e-05</v>
+        <v>0.03943532679128214</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6666666666666666</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3.663533967135258e-05</v>
+        <v>0.04382000699383194</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Citric Acid Cycle</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4.818146637765198e-05</v>
+        <v>0.1492867248449032</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Glyoxylate Metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.000126414941840505</v>
+        <v>0.2404214652168511</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.5</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2962962962962963</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.002053304252064778</v>
+        <v>0.4357574366136082</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.2462686567164179</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4666666666666667</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.006551095047399287</v>
+        <v>0.4358269320390005</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.006551095047399287</v>
+        <v>0.6814477917780764</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -966,170 +966,170 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.01275988680196792</v>
+        <v>0.9652598197975726</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2941176470588235</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.01868198378751274</v>
+        <v>0.9914953124249449</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0.1517857142857143</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.03668835642801303</v>
+        <v>0.9927505259039826</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.158273381294964</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2916666666666667</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Alternate Carbon Metabolism</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.03845744242073043</v>
+        <v>0.999595026635044</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1853932584269663</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1853932584269663</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.0518036329450826</v>
+        <v>0.9999466302229616</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3636363636363636</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.09275071595184482</v>
+        <v>0.9999917471622648</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5</v>
+        <v>0.1341463414634146</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Alternate Carbon Metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.1444211253123789</v>
+        <v>0.9999999829893723</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1612903225806452</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1612903225806452</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.9221293712058023</v>
+        <v>0.9999999999976428</v>
       </c>
       <c r="D35" t="n">
-        <v>0.06896551724137931</v>
+        <v>0.08518518518518518</v>
       </c>
       <c r="E35" t="n">
-        <v>0.06896551724137931</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Transport, Inner Membrane</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0.9999999999999964</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1143,26 +1143,64 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>1</v>
       </c>
       <c r="D38" t="n">
+        <v>0.07098765432098765</v>
+      </c>
+      <c r="E38" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>tRNA Charging</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E39" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Nitrogen Metabolism</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
         <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +1214,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,7 +1246,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1216,56 +1254,56 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.234437892913268e-96</v>
+        <v>3.588803185519461e-37</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8491620111731844</v>
+        <v>0.6894977168949772</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8491620111731844</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6.27320902199322e-21</v>
+        <v>7.790931824332213e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9090909090909091</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7.137275463124411e-17</v>
+        <v>1.531630922660255e-08</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5252525252525253</v>
+        <v>0.725</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5252525252525253</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1273,89 +1311,89 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5.194767106411173e-16</v>
+        <v>1.797362158970162e-08</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.84</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9545454545454546</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6.085496344649412e-16</v>
+        <v>3.661113511508754e-08</v>
       </c>
       <c r="D6" t="n">
-        <v>0.660377358490566</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="E6" t="n">
-        <v>0.660377358490566</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8.860396623139144e-16</v>
+        <v>1.047310262131853e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9375</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9166666666666666</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3.746056856548156e-15</v>
+        <v>3.713417796024587e-07</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5432098765432098</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5432098765432098</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7.689290811907342e-15</v>
+        <v>1.477171298549225e-06</v>
       </c>
       <c r="D9" t="n">
-        <v>0.625</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="E9" t="n">
-        <v>0.625</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -1364,150 +1402,150 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nucleotide Salvage Pathway</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.338368739682614e-14</v>
+        <v>9.873738997447361e-06</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5454545454545454</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Histidine Metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.58228625911367e-12</v>
+        <v>0.0001125669422884992</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Murein Biosynthesis</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0005117646946741078</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="E12" t="n">
         <v>15</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1.58228625911367e-12</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Citric Acid Cycle</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.58228625911367e-12</v>
+        <v>0.001309441895759227</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Arginine and Proline Metabolism</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.529052083291104e-11</v>
+        <v>0.003025704290735899</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6341463414634146</v>
+        <v>0.4507042253521127</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6341463414634146</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6.41437043709264e-10</v>
+        <v>0.003268930067099515</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.007539729590878e-09</v>
+        <v>0.006796008775512031</v>
       </c>
       <c r="D16" t="n">
-        <v>0.72</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="E16" t="n">
-        <v>0.72</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Murein Biosynthesis</t>
+          <t>Glyoxylate Metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.399900285006997e-08</v>
+        <v>0.007297039792826606</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1516,22 +1554,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Histidine Metabolism</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>8.587417514743651e-08</v>
+        <v>0.009019713591788764</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1539,37 +1577,37 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.31196082173317e-07</v>
+        <v>0.009667149687293517</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9090909090909091</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5.113066569573125e-07</v>
+        <v>0.009797802840980696</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5128205128205128</v>
+        <v>0.75</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5128205128205128</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1577,336 +1615,374 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.632987713683861e-06</v>
+        <v>0.01263282749188587</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7333333333333333</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.632987713683861e-06</v>
+        <v>0.02067647350781146</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.3741007194244604</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7333333333333333</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Alanine and Aspartate Metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3.219614118171744e-06</v>
+        <v>0.02216077646703036</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3.735629018830491e-06</v>
+        <v>0.0645887317595851</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5833333333333334</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Citric Acid Cycle</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6.922073984067512e-06</v>
+        <v>0.07811611921643462</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.75</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5909090909090909</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.174657172823041e-05</v>
+        <v>0.08972088800006334</v>
       </c>
       <c r="D26" t="n">
-        <v>0.75</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E26" t="n">
-        <v>0.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.731014104781985e-05</v>
+        <v>0.09579573528020324</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.932116338487918e-05</v>
+        <v>0.4341588558744192</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4705882352941176</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.0007324109906376215</v>
+        <v>0.5510459093862199</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0.291044776119403</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Methylglyoxal Metabolism</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.002979828388211635</v>
+        <v>0.7911465449699542</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4166666666666667</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Alternate Carbon Metabolism</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.004570337447188223</v>
+        <v>0.9162061037338012</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2415730337078652</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2415730337078652</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.01463443191853606</v>
+        <v>0.9974391483156566</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.02712847417492135</v>
+        <v>0.9997552151429627</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Alternate Carbon Metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.2054181923729725</v>
+        <v>0.9999998711677118</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1854838709677419</v>
+        <v>0.1435897435897436</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1854838709677419</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Methylglyoxal Metabolism</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.763557010277102</v>
+        <v>0.9999999604239023</v>
       </c>
       <c r="D35" t="n">
-        <v>0.125</v>
+        <v>0.1544715447154472</v>
       </c>
       <c r="E35" t="n">
-        <v>0.125</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.8793466714331417</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D36" t="n">
-        <v>0.103448275862069</v>
+        <v>0.1</v>
       </c>
       <c r="E36" t="n">
-        <v>0.103448275862069</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.07098765432098765</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Transport, Inner Membrane</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>1</v>
       </c>
       <c r="D38" t="n">
+        <v>0.105421686746988</v>
+      </c>
+      <c r="E38" t="n">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Nitrogen Metabolism</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E39" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>tRNA Charging</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
         <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1920,7 +1996,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1952,7 +2028,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1960,417 +2036,417 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8.54876577779327e-77</v>
+        <v>9.204127211759532e-36</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7318435754189944</v>
+        <v>0.6118721461187214</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7318435754189944</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.225379341790873e-19</v>
+        <v>5.785495700489496e-17</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5151515151515151</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Purine and Pyrimidine Biosynthesis</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.573310907719338e-17</v>
+        <v>2.556951983657869e-10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.84</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9166666666666666</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4.276973050103815e-17</v>
+        <v>4.454178646563344e-09</v>
       </c>
       <c r="D5" t="n">
-        <v>0.625</v>
+        <v>0.9375</v>
       </c>
       <c r="E5" t="n">
-        <v>0.625</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Purine and Pyrimidine Biosynthesis</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.162489311231539e-15</v>
+        <v>4.336901666484822e-08</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9090909090909091</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>Histidine Metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4.214954510837543e-15</v>
+        <v>5.183113105948299e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6037735849056604</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6037735849056604</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Citric Acid Cycle</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.383812516328717e-13</v>
+        <v>2.14395335953568e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5.159227449428853e-12</v>
+        <v>4.163017316524728e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6666666666666666</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.316108829437973e-11</v>
+        <v>4.736952667452537e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.4507042253521127</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9333333333333333</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Citric Acid Cycle</t>
+          <t>Murein Biosynthesis</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.433357332311475e-11</v>
+        <v>6.328945609589011e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7727272727272727</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4.838986096644072e-10</v>
+        <v>6.976483595324862e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4197530864197531</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4197530864197531</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Murein Biosynthesis</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.776004483275443e-09</v>
+        <v>0.0004744074967666868</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Alanine and Aspartate Metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.603904149677687e-08</v>
+        <v>0.0009188656086168086</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.713238022103682e-08</v>
+        <v>0.002266693546438469</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7</v>
+        <v>0.45</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Histidine Metabolism</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.004256157856256e-08</v>
+        <v>0.003822643577044101</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Nucleotide Salvage Pathway</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4.159028080416454e-08</v>
+        <v>0.03077787137051906</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3896103896103896</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3896103896103896</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.400615738165116e-07</v>
+        <v>0.04342246632282346</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8333333333333334</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Pyruvate Metabolism</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.06302112657103588</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Arginine and Proline Metabolism</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>5.654082496973997e-07</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.4634146341463415</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.4634146341463415</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9.943521116176717e-07</v>
+        <v>0.08625705385702939</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.3269230769230769</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5600000000000001</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.040145087017412e-06</v>
+        <v>0.0957042990472823</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.817663477166461e-05</v>
+        <v>0.1306265369003777</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3.028642322755371e-05</v>
+        <v>0.1411351001564268</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4102564102564102</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4102564102564102</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2378,241 +2454,241 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.0003719023054631771</v>
+        <v>0.2196080196025704</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5333333333333333</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.002392789798002621</v>
+        <v>0.4272045791429817</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.2462686567164179</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4666666666666667</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.007331037448287764</v>
+        <v>0.4339592304261211</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.007331037448287764</v>
+        <v>0.6828709427694388</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5</v>
+        <v>0.223021582733813</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.0151753246125522</v>
+        <v>0.9476995889634824</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2941176470588235</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.01966854144585694</v>
+        <v>0.9645928837699609</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.04150251806097465</v>
+        <v>0.9995806209418047</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2916666666666667</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.05620100455080893</v>
+        <v>0.9999442748276708</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3636363636363636</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Alternate Carbon Metabolism</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.2160590860607898</v>
+        <v>0.9999999986901374</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1629213483146068</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1629213483146068</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Alternate Carbon Metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.2399728198937841</v>
+        <v>0.9999999999223044</v>
       </c>
       <c r="D33" t="n">
-        <v>0.157258064516129</v>
+        <v>0.07179487179487179</v>
       </c>
       <c r="E33" t="n">
-        <v>0.157258064516129</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.9292395003924655</v>
+        <v>0.9999999999615842</v>
       </c>
       <c r="D34" t="n">
-        <v>0.06896551724137931</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="E34" t="n">
-        <v>0.06896551724137931</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Transport, Inner Membrane</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>0.08132530120481928</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Methylglyoxal Metabolism</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37">
@@ -2621,7 +2697,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>tRNA Charging</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -2631,16 +2707,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Nitrogen Metabolism</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -2650,7 +2726,45 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Methylglyoxal Metabolism</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Glyoxylate Metabolism</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2664,7 +2778,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2696,7 +2810,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -2704,317 +2818,317 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9.865342783047672e-90</v>
+        <v>1.09697477532172e-41</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8044692737430168</v>
+        <v>0.6757990867579908</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8044692737430168</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5.464283007106919e-22</v>
+        <v>1.634882912158148e-15</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9090909090909091</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Purine and Pyrimidine Biosynthesis</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7.361061086113567e-17</v>
+        <v>1.123309264723855e-10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5050505050505051</v>
+        <v>0.88</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5050505050505051</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Glycolysis/Gluconeogenesis</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4.542766198394487e-09</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="E5" t="n">
         <v>22</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Purine and Pyrimidine Biosynthesis</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9.370016409680901e-17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9545454545454546</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.9545454545454546</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.491403666934785e-16</v>
+        <v>1.915020606782881e-08</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9375</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9166666666666666</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4.705273014486258e-16</v>
+        <v>2.234729152188409e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6415094339622641</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6415094339622641</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Histidine Metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5.706913365311807e-16</v>
+        <v>1.392506343841866e-06</v>
       </c>
       <c r="D8" t="n">
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.625</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4.634114200856739e-13</v>
+        <v>2.035326239933672e-06</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.634114200856739e-13</v>
+        <v>5.387748369781139e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.43841737888543e-12</v>
+        <v>5.836431587364966e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>0.85</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="E11" t="n">
-        <v>0.85</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8.35447756392566e-12</v>
+        <v>8.558958402243096e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4691358024691358</v>
+        <v>0.55</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4691358024691358</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
+          <t>Alanine and Aspartate Metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4.011617933843892e-11</v>
+        <v>0.0001444358741211967</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9333333333333333</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Murein Biosynthesis</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.541883775645326e-10</v>
+        <v>0.0001674448290950257</v>
       </c>
       <c r="D14" t="n">
-        <v>0.72</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="E14" t="n">
-        <v>0.72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.620535111203906e-09</v>
+        <v>0.0003555850700550126</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.4507042253521127</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8666666666666667</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Murein Biosynthesis</t>
+          <t>Citric Acid Cycle</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6.193031221762385e-09</v>
+        <v>0.0004803941930810521</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9.614824704360285e-09</v>
+        <v>0.000497991947786883</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.875</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9166666666666666</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Citric Acid Cycle</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.761850337734676e-08</v>
+        <v>0.001343946197463546</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6818181818181818</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -3023,345 +3137,345 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Histidine Metabolism</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4.124107320736219e-08</v>
+        <v>0.004485799526924039</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Glyoxylate Metabolism</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.004605517102331001</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
         <v>4</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Nucleotide Salvage Pathway</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>2.603736899110942e-07</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.3896103896103896</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.3896103896103896</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3.566734510777605e-07</v>
+        <v>0.00558641013180043</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>7.028747241492666e-07</v>
+        <v>0.007495596849007296</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7333333333333333</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>7.560953394639587e-07</v>
+        <v>0.04347235522770116</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4871794871794872</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4871794871794872</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.821508773329344e-06</v>
+        <v>0.05701643900009484</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Arginine and Proline Metabolism</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.985071474783006e-06</v>
+        <v>0.05762417460010648</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4634146341463415</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4634146341463415</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>9.265641718461637e-06</v>
+        <v>0.1868847247665948</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.010798567875874e-05</v>
+        <v>0.383960247825997</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.2767857142857143</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5416666666666666</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.01743868201011e-05</v>
+        <v>0.5317257006745104</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.2611940298507462</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4705882352941176</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.0005293207864013358</v>
+        <v>0.848206236720829</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.002806559833618415</v>
+        <v>0.9957511242994628</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.1726618705035971</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5454545454545454</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.02306818867675486</v>
+        <v>0.9999907170841752</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Alternate Carbon Metabolism</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.03932665881410233</v>
+        <v>0.9999992110541776</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2022471910112359</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2022471910112359</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Alternate Carbon Metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.1454362028974499</v>
+        <v>0.9999999967549972</v>
       </c>
       <c r="D33" t="n">
-        <v>0.25</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="E33" t="n">
-        <v>0.25</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.715441449973093</v>
+        <v>0.9999999999943445</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1411290322580645</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1411290322580645</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Methylglyoxal Metabolism</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.7328724655491001</v>
+        <v>0.9999999999999956</v>
       </c>
       <c r="D35" t="n">
-        <v>0.125</v>
+        <v>0.08518518518518518</v>
       </c>
       <c r="E35" t="n">
-        <v>0.125</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Methylglyoxal Metabolism</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.9917549713758892</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.03448275862068965</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.03448275862068965</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3375,12 +3489,12 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3394,7 +3508,45 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Transport, Inner Membrane</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.08132530120481928</v>
+      </c>
+      <c r="E39" t="n">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Extracellular exchange</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="E40" t="n">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -3408,7 +3560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3440,7 +3592,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -3448,374 +3600,374 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.773659688835076e-88</v>
+        <v>2.105107663820978e-32</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8100558659217877</v>
+        <v>0.680365296803653</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8100558659217877</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.471888262715077e-18</v>
+        <v>4.718119786821922e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8484848484848485</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>Purine and Pyrimidine Biosynthesis</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.412652039506137e-17</v>
+        <v>2.240868670054667e-10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6792452830188679</v>
+        <v>0.92</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6792452830188679</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.108593193274845e-16</v>
+        <v>2.324239353909507e-07</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.9375</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5555555555555556</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3.58346157547214e-16</v>
+        <v>3.382765388905703e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9166666666666666</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4.1071217035831e-16</v>
+        <v>3.550014456479137e-06</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5050505050505051</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5050505050505051</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.058723310651392e-15</v>
+        <v>6.135466112318146e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>0.625</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="E8" t="n">
-        <v>0.625</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Histidine Metabolism</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0001799358917869639</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E9" t="n">
         <v>10</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Arginine and Proline Metabolism</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>4.113854493127872e-15</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.7073170731707317</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.7073170731707317</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Purine and Pyrimidine Biosynthesis</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.264755416949356e-14</v>
+        <v>0.0002620422774449907</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9090909090909091</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8.476255497643705e-13</v>
+        <v>0.0008088162790395683</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Murein Biosynthesis</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8.476255497643705e-13</v>
+        <v>0.00085832499371504</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nucleotide Salvage Pathway</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.198060287088376e-11</v>
+        <v>0.001543190223602468</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4805194805194805</v>
+        <v>0.875</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4805194805194805</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Methionine Metabolism</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.004527542913423829</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="E14" t="n">
         <v>15</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>6.997720930547048e-11</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.9333333333333333</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.393005368294761e-10</v>
+        <v>0.004925932860768636</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5.009376413771959e-10</v>
+        <v>0.007564620806300166</v>
       </c>
       <c r="D16" t="n">
-        <v>0.72</v>
+        <v>0.4507042253521127</v>
       </c>
       <c r="E16" t="n">
-        <v>0.72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Glyoxylate Metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.336243958701483e-09</v>
+        <v>0.00906260506582714</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7083333333333334</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7083333333333334</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Murein Biosynthesis</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>9.248038400577316e-09</v>
+        <v>0.01245689936391781</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Alanine and Aspartate Metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6.434980587114288e-08</v>
+        <v>0.02903511694955209</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Citric Acid Cycle</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5.082479794971766e-07</v>
+        <v>0.0369647612799922</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.420737607091455e-06</v>
+        <v>0.04883179201192855</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4871794871794872</v>
+        <v>0.3577235772357724</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4871794871794872</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22">
@@ -3824,231 +3976,231 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.410188955848126e-06</v>
+        <v>0.07755877274535436</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Histidine Metabolism</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2.927108484241422e-06</v>
+        <v>0.07755877274535436</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8888888888888888</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Citric Acid Cycle</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4.303509890689564e-06</v>
+        <v>0.09045505810985958</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.75</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5909090909090909</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>8.261892564285485e-06</v>
+        <v>0.09132828602665756</v>
       </c>
       <c r="D25" t="n">
-        <v>0.75</v>
+        <v>0.4038461538461539</v>
       </c>
       <c r="E25" t="n">
-        <v>0.75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.260255050321841e-05</v>
+        <v>0.106155016007703</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.717236399583084e-05</v>
+        <v>0.1097520124074763</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4705882352941176</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3.980249581245863e-05</v>
+        <v>0.2734476885884799</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.3358208955223881</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7272727272727273</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.0006209483652906105</v>
+        <v>0.3118662578340031</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0.3309352517985611</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.002168857815128605</v>
+        <v>0.9005320872742083</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.2589285714285715</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4166666666666667</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.004817147790326977</v>
+        <v>0.939968498881058</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4666666666666667</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.02498207668976908</v>
+        <v>0.9987505075591548</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Alternate Carbon Metabolism</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.09376527813561142</v>
+        <v>0.9998839985957432</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1966292134831461</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1966292134831461</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -4056,60 +4208,60 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.6824157333524024</v>
+        <v>0.9999999999995612</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1491935483870968</v>
+        <v>0.1506024096385542</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1491935483870968</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Methylglyoxal Metabolism</t>
+          <t>Alternate Carbon Metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.748055570861204</v>
+        <v>0.9999999999996879</v>
       </c>
       <c r="D35" t="n">
-        <v>0.125</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="E35" t="n">
-        <v>0.125</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.8598734980906515</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.103448275862069</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="E36" t="n">
-        <v>0.103448275862069</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Methylglyoxal Metabolism</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -4119,16 +4271,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Nitrogen Metabolism</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -4138,7 +4290,45 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>tRNA Charging</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Transport, Outer Membrane Porin</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.1037037037037037</v>
+      </c>
+      <c r="E40" t="n">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -4152,7 +4342,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4184,7 +4374,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -4192,208 +4382,208 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6.924932188651755e-84</v>
+        <v>1.073699982771343e-36</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7877094972067039</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7877094972067039</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.859281035355608e-23</v>
+        <v>4.186418904005284e-15</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9393939393939394</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9393939393939394</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Purine and Pyrimidine Biosynthesis</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7.656719620922805e-18</v>
+        <v>2.032432649029527e-10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5679012345679012</v>
+        <v>0.88</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5679012345679012</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Glycolysis/Gluconeogenesis</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3.960038096958029e-10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="E5" t="n">
         <v>22</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Purine and Pyrimidine Biosynthesis</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1.529787196659142e-16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9545454545454546</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.9545454545454546</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.483966490250713e-16</v>
+        <v>2.891812870777138e-08</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9375</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9166666666666666</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9.775690176858122e-16</v>
+        <v>1.296663596254314e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6415094339622641</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6415094339622641</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.205068715716242e-15</v>
+        <v>3.541379704226007e-07</v>
       </c>
       <c r="D8" t="n">
-        <v>0.625</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="E8" t="n">
-        <v>0.625</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Histidine Metabolism</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.520068050084969e-14</v>
+        <v>1.84218393367487e-06</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4747474747474748</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4747474747474748</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6.58480796890037e-13</v>
+        <v>2.573277949541062e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Murein Biosynthesis</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6.58480796890037e-13</v>
+        <v>0.0002199469073562799</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5.545312308412026e-11</v>
+        <v>0.0006109261057646938</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.4507042253521127</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9333333333333333</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -4401,146 +4591,146 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.856089297426524e-10</v>
+        <v>0.0006137384219601458</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7727272727272727</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.621355912117004e-10</v>
+        <v>0.0006844180405955666</v>
       </c>
       <c r="D14" t="n">
         <v>0.8</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Murein Biosynthesis</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7.820288081822988e-09</v>
+        <v>0.001401321451167877</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Arginine and Proline Metabolism</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.554892490117493e-08</v>
+        <v>0.001670182032045078</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5365853658536586</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5365853658536586</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Histidine Metabolism</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5.086818965916438e-08</v>
+        <v>0.003571780530197957</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5.108806839132632e-08</v>
+        <v>0.003820679012964825</v>
       </c>
       <c r="D18" t="n">
-        <v>0.64</v>
+        <v>0.475</v>
       </c>
       <c r="E18" t="n">
-        <v>0.64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Glyoxylate Metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.924797127671454e-07</v>
+        <v>0.00514846912400939</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5128205128205128</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5128205128205128</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>8.950265455091038e-07</v>
+        <v>0.006128122252399403</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7333333333333333</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -4549,112 +4739,112 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2.143823823110259e-06</v>
+        <v>0.04788686900493565</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Biomass and maintenance functions</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.06155778300446009</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E22" t="n">
         <v>4</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Nucleotide Salvage Pathway</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>5.309720624759596e-06</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Alanine and Aspartate Metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.10821757410039e-05</v>
+        <v>0.06425627037230687</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.109586287347973e-05</v>
+        <v>0.06425627037230687</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6666666666666666</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.313483173561327e-05</v>
+        <v>0.1991804541813844</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5416666666666666</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3.509445018843793e-05</v>
+        <v>0.2077977016712095</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.3269230769230769</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7272727272727273</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27">
@@ -4663,79 +4853,79 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.000166754343879384</v>
+        <v>0.3706666714506368</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Methylglyoxal Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.0004238496807046846</v>
+        <v>0.4505598515141992</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4583333333333333</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.0005808417579560442</v>
+        <v>0.6093497803166967</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0.2611940298507462</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.0008258437716962604</v>
+        <v>0.9803142631882903</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5833333333333334</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -4743,136 +4933,136 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.003657553912768236</v>
+        <v>0.9842801043972249</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3529411764705883</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Alternate Carbon Metabolism</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.00476444406070543</v>
+        <v>0.9854256434157541</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2303370786516854</v>
+        <v>0.1942446043165468</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2303370786516854</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>Alternate Carbon Metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.02416304769038899</v>
+        <v>0.9999728630928906</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.3580789567706221</v>
+        <v>0.9999936761954779</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1653225806451613</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1653225806451613</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Methylglyoxal Metabolism</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.7417267139741145</v>
+        <v>0.9999999999976986</v>
       </c>
       <c r="D35" t="n">
-        <v>0.125</v>
+        <v>0.1074074074074074</v>
       </c>
       <c r="E35" t="n">
-        <v>0.125</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.9927059635311415</v>
+        <v>0.999999999999003</v>
       </c>
       <c r="D36" t="n">
-        <v>0.03448275862068965</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="E36" t="n">
-        <v>0.03448275862068965</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Transport, Inner Membrane</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.09939759036144578</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Nitrogen Metabolism</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -4882,7 +5072,45 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>tRNA Charging</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Extracellular exchange</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="E40" t="n">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -4896,7 +5124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4928,7 +5156,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -4936,37 +5164,37 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.620213736727589e-96</v>
+        <v>3.118776378299544e-39</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8491620111731844</v>
+        <v>0.7031963470319634</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8491620111731844</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5.27203479299317e-21</v>
+        <v>9.710564759147603e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9090909090909091</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -4974,374 +5202,374 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.597672832202101e-16</v>
+        <v>1.481440068729812e-09</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.88</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9545454545454546</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5.044148584482819e-16</v>
+        <v>2.464998911498851e-09</v>
       </c>
       <c r="D5" t="n">
-        <v>0.660377358490566</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="E5" t="n">
-        <v>0.660377358490566</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7.803787038292438e-16</v>
+        <v>1.15433440002616e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9375</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9166666666666666</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3.001453257377129e-15</v>
+        <v>1.720697628042394e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5432098765432098</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5432098765432098</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6.394515626513451e-15</v>
+        <v>4.021423457136726e-07</v>
       </c>
       <c r="D8" t="n">
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.625</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Histidine Metabolism</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5.336926314981642e-14</v>
+        <v>4.724864485043465e-06</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4848484848484849</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4848484848484849</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.449582850824257e-12</v>
+        <v>1.283643211209875e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.449582850824257e-12</v>
+        <v>8.18348666767417e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Arginine and Proline Metabolism</t>
+          <t>Citric Acid Cycle</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.333540370965352e-11</v>
+        <v>0.000197939579555303</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6341463414634146</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6341463414634146</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Murein Biosynthesis</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.000545248327347375</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="E13" t="n">
         <v>15</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1.147036039547934e-10</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.9333333333333333</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nucleotide Salvage Pathway</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.159555416343851e-10</v>
+        <v>0.003394656824402464</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4675324675324675</v>
+        <v>0.4507042253521127</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4675324675324675</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Citric Acid Cycle</t>
+          <t>Alanine and Aspartate Metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4.340545499353831e-10</v>
+        <v>0.003770677035057048</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7727272727272727</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>Glyoxylate Metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5.866517026913406e-10</v>
+        <v>0.00749239863328069</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9.135712431163898e-10</v>
+        <v>0.009383924472115047</v>
       </c>
       <c r="D17" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="E17" t="n">
-        <v>0.72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Murein Biosynthesis</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.320774109364318e-08</v>
+        <v>0.01322477886258156</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Histidine Metabolism</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>8.149622331202443e-08</v>
+        <v>0.01604129519032837</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4.640409059572272e-07</v>
+        <v>0.0229077616747753</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5128205128205128</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5128205128205128</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6.341738333876025e-07</v>
+        <v>0.02792246176829483</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8333333333333334</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.537946933653384e-06</v>
+        <v>0.05360472548398827</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.625</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7333333333333333</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.537946933653384e-06</v>
+        <v>0.05854845268908948</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.4038461538461539</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7333333333333333</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24">
@@ -5350,155 +5578,155 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3.091395014542887e-06</v>
+        <v>0.06605427305811724</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3.478538420856196e-06</v>
+        <v>0.06605427305811724</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5833333333333334</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.655664327206278e-05</v>
+        <v>0.07953013113901904</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2.721080329983914e-05</v>
+        <v>0.1445568586241004</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.3381294964028777</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4705882352941176</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5.198520976843066e-05</v>
+        <v>0.4523973572913368</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7272727272727273</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.0002344708568170723</v>
+        <v>0.5709580769245672</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7</v>
+        <v>0.291044776119403</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Methylglyoxal Metabolism</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.0007156348699364715</v>
+        <v>0.7947364294110335</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Alternate Carbon Metabolism</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.002315607243280649</v>
+        <v>0.8238499232638912</v>
       </c>
       <c r="D31" t="n">
-        <v>0.247191011235955</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="E31" t="n">
-        <v>0.247191011235955</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -5506,117 +5734,117 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.002850685867524541</v>
+        <v>0.9976445779698645</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4166666666666667</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.02681643089499225</v>
+        <v>0.9997757482349517</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Alternate Carbon Metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.1137892059443403</v>
+        <v>0.9999993244701063</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1935483870967742</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Methylglyoxal Metabolism</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.7613949507716513</v>
+        <v>0.9999999725083528</v>
       </c>
       <c r="D35" t="n">
-        <v>0.125</v>
+        <v>0.1544715447154472</v>
       </c>
       <c r="E35" t="n">
-        <v>0.125</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.8767116249424775</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="D36" t="n">
-        <v>0.103448275862069</v>
+        <v>0.1037037037037037</v>
       </c>
       <c r="E36" t="n">
-        <v>0.103448275862069</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Nitrogen Metabolism</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -5626,7 +5854,45 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>tRNA Charging</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Transport, Inner Membrane</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.1144578313253012</v>
+      </c>
+      <c r="E40" t="n">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -5640,7 +5906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5672,7 +5938,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -5680,37 +5946,37 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5.056588369206864e-91</v>
+        <v>1.561768959339805e-37</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8324022346368715</v>
+        <v>0.7031963470319634</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8324022346368715</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.685804369756006e-24</v>
+        <v>2.406594546060523e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9696969696969697</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9696969696969697</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -5718,127 +5984,127 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5.258601420784736e-18</v>
+        <v>1.420777270083475e-10</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7.681078334995681e-16</v>
+        <v>1.652311557983676e-10</v>
       </c>
       <c r="D5" t="n">
-        <v>0.660377358490566</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="E5" t="n">
-        <v>0.660377358490566</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.037353062515142e-15</v>
+        <v>5.403990346529713e-09</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9166666666666666</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Arginine and Proline Metabolism</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.173076539110058e-15</v>
+        <v>1.724617470888576e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7317073170731707</v>
+        <v>0.9375</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7317073170731707</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4.930605359690284e-15</v>
+        <v>5.588131359016952e-07</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5432098765432098</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5432098765432098</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9.66548184723348e-15</v>
+        <v>2.558712300773868e-06</v>
       </c>
       <c r="D9" t="n">
-        <v>0.625</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="E9" t="n">
-        <v>0.625</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Histidine Metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.945691454424007e-14</v>
+        <v>6.213061872059467e-06</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4848484848484849</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4848484848484849</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -5847,117 +6113,117 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nucleotide Salvage Pathway</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.083160191672986e-13</v>
+        <v>0.0001140792164783243</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5324675324675324</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5324675324675324</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Murein Biosynthesis</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.764116543035157e-12</v>
+        <v>0.0007076835123199962</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Citric Acid Cycle</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.764116543035157e-12</v>
+        <v>0.00175092499346827</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.764116543035157e-12</v>
+        <v>0.004227442610424391</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.237287279633464e-11</v>
+        <v>0.005406574301508687</v>
       </c>
       <c r="D15" t="n">
-        <v>0.85</v>
+        <v>0.4507042253521127</v>
       </c>
       <c r="E15" t="n">
-        <v>0.85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Glyoxylate Metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.137714135259829e-09</v>
+        <v>0.008356058902407785</v>
       </c>
       <c r="D16" t="n">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.72</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -5965,184 +6231,184 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4.998003906337691e-09</v>
+        <v>0.00868517432094541</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8666666666666667</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Murein Biosynthesis</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.504795342024254e-08</v>
+        <v>0.01104326381165726</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Histidine Metabolism</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>9.163985546646254e-08</v>
+        <v>0.01132577398992557</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.408475544959192e-07</v>
+        <v>0.01595682386871631</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.6</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9090909090909091</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5.766455629095836e-07</v>
+        <v>0.02625252628803429</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5128205128205128</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5128205128205128</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.759163393053582e-06</v>
+        <v>0.05675914097860586</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.3669064748201439</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7333333333333333</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3.386275988258156e-06</v>
+        <v>0.05984209438258124</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4.081098315864592e-06</v>
+        <v>0.07244033752878243</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5833333333333334</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Citric Acid Cycle</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>7.51742330517377e-06</v>
+        <v>0.08563083211543174</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.75</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5909090909090909</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Alanine and Aspartate Metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.829346706620159e-05</v>
+        <v>0.1018290545007649</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -6151,193 +6417,193 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3.216539275066789e-05</v>
+        <v>0.1987011300517432</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.3653846153846154</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4705882352941176</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Alternate Carbon Metabolism</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.0001208180298730707</v>
+        <v>0.3647445419974577</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2752808988764045</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2752808988764045</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.0001469595149866325</v>
+        <v>0.6515639770480969</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.291044776119403</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6666666666666666</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.0007537939056993006</v>
+        <v>0.9316777816226183</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.00235413704874403</v>
+        <v>0.9983509875143857</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.003147977342568291</v>
+        <v>0.9998453750458358</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4166666666666667</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>Alternate Carbon Metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.02752106658784735</v>
+        <v>0.9999651855283528</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.2207567959829222</v>
+        <v>0.9999999058466058</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1854838709677419</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1854838709677419</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Methylglyoxal Metabolism</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.7662354649547599</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D35" t="n">
-        <v>0.125</v>
+        <v>0.1148148148148148</v>
       </c>
       <c r="E35" t="n">
-        <v>0.125</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Transport, Inner Membrane</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.8825739505869569</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.103448275862069</v>
+        <v>0.1144578313253012</v>
       </c>
       <c r="E36" t="n">
-        <v>0.103448275862069</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -6351,26 +6617,64 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>1</v>
       </c>
       <c r="D38" t="n">
+        <v>0.08024691358024691</v>
+      </c>
+      <c r="E38" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>tRNA Charging</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E39" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Methylglyoxal Metabolism</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
         <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
